--- a/translations.xlsx
+++ b/translations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SjobergD\Desktop\To Delete\gtsummary_language_gif\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SjobergD\GitHub\gtsummary-translation-gif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BEC579-05B6-4B0B-946F-7D56DFFDBB96}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A75B8D-5FDB-47F6-8F65-6773771AE5C2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{0CF341BA-DD9F-4680-99DA-1DA4026995D3}"/>
   </bookViews>
@@ -204,9 +204,6 @@
     <t>Swedish</t>
   </si>
   <si>
-    <t>Poruguese</t>
-  </si>
-  <si>
     <t>French</t>
   </si>
   <si>
@@ -313,6 +310,9 @@
   </si>
   <si>
     <t>繁體中文</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
   </si>
 </sst>
 </file>
@@ -681,7 +681,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,16 +722,16 @@
         <v>45</v>
       </c>
       <c r="I1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -754,22 +754,22 @@
         <v>56</v>
       </c>
       <c r="G2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" t="s">
         <v>57</v>
       </c>
-      <c r="H2" t="s">
-        <v>58</v>
-      </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" t="s">
         <v>62</v>
       </c>
-      <c r="K2" t="s">
-        <v>63</v>
-      </c>
       <c r="L2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -777,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -798,16 +798,16 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -836,16 +836,16 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -874,16 +874,16 @@
         <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
         <v>73</v>
       </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
       <c r="L5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -912,16 +912,16 @@
         <v>49</v>
       </c>
       <c r="I6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" t="s">
         <v>69</v>
       </c>
-      <c r="J6" t="s">
-        <v>70</v>
-      </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -950,16 +950,16 @@
         <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1087,31 +1087,31 @@
         <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" t="s">
         <v>80</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>81</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" t="s">
         <v>83</v>
       </c>
-      <c r="I11" t="s">
-        <v>84</v>
-      </c>
       <c r="J11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/translations.xlsx
+++ b/translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SjobergD\GitHub\gtsummary-translation-gif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A75B8D-5FDB-47F6-8F65-6773771AE5C2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4577BF89-EC48-429D-8806-E3435B7EDA8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{0CF341BA-DD9F-4680-99DA-1DA4026995D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{0CF341BA-DD9F-4680-99DA-1DA4026995D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="109">
   <si>
     <t>zh-tw</t>
   </si>
@@ -313,6 +313,51 @@
   </si>
   <si>
     <t>Portuguese</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>Icelandic</t>
+  </si>
+  <si>
+    <t>Íslenska</t>
+  </si>
+  <si>
+    <t>Lyfjameðferð</t>
+  </si>
+  <si>
+    <t>Geislameðferð</t>
+  </si>
+  <si>
+    <t>Aldur</t>
+  </si>
+  <si>
+    <t>Æxlisstig</t>
+  </si>
+  <si>
+    <t>kr</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>한국어</t>
+  </si>
+  <si>
+    <t>방사선 요법</t>
+  </si>
+  <si>
+    <t>나이</t>
+  </si>
+  <si>
+    <t>농종 등급</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/ce/Flag_of_Iceland.svg/1280px-Flag_of_Iceland.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/09/Flag_of_South_Korea.svg/1280px-Flag_of_South_Korea.svg.png</t>
   </si>
 </sst>
 </file>
@@ -357,9 +402,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -675,13 +723,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{479039AE-01F2-4E76-BADA-2E4CABC84037}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,9 +742,10 @@
     <col min="9" max="9" width="16.5703125" customWidth="1"/>
     <col min="10" max="10" width="20.28515625" customWidth="1"/>
     <col min="11" max="11" width="20.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -733,8 +782,14 @@
       <c r="L1" t="s">
         <v>84</v>
       </c>
+      <c r="M1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -771,8 +826,14 @@
       <c r="L2" t="s">
         <v>85</v>
       </c>
+      <c r="M2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N2" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -809,8 +870,14 @@
       <c r="L3" t="s">
         <v>86</v>
       </c>
+      <c r="M3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N3" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -847,8 +914,14 @@
       <c r="L4" t="s">
         <v>87</v>
       </c>
+      <c r="M4" t="s">
+        <v>97</v>
+      </c>
+      <c r="N4" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -885,8 +958,14 @@
       <c r="L5" t="s">
         <v>88</v>
       </c>
+      <c r="M5" t="s">
+        <v>98</v>
+      </c>
+      <c r="N5" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -923,8 +1002,14 @@
       <c r="L6" t="s">
         <v>89</v>
       </c>
+      <c r="M6" t="s">
+        <v>99</v>
+      </c>
+      <c r="N6" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -961,8 +1046,14 @@
       <c r="L7" t="s">
         <v>90</v>
       </c>
+      <c r="M7" t="s">
+        <v>100</v>
+      </c>
+      <c r="N7" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -999,8 +1090,14 @@
       <c r="L8" t="s">
         <v>9</v>
       </c>
+      <c r="M8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1037,8 +1134,14 @@
       <c r="L9" t="s">
         <v>10</v>
       </c>
+      <c r="M9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1075,8 +1178,14 @@
       <c r="L10" t="s">
         <v>11</v>
       </c>
+      <c r="M10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1112,6 +1221,12 @@
       </c>
       <c r="L11" t="s">
         <v>91</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1121,8 +1236,10 @@
     <hyperlink ref="D11" r:id="rId3" xr:uid="{01DD4385-2BBA-44FD-96EE-7BF5547E6AC4}"/>
     <hyperlink ref="E11" r:id="rId4" xr:uid="{5C0FA8A3-4498-4518-8DEF-D02C2D14579E}"/>
     <hyperlink ref="H11" r:id="rId5" xr:uid="{48982109-33C4-478B-B7D5-5A4ABE8CC31D}"/>
+    <hyperlink ref="N11" r:id="rId6" xr:uid="{FD6FCF86-34ED-402F-83B8-DC2D22786984}"/>
+    <hyperlink ref="M11" r:id="rId7" xr:uid="{7410B219-1570-452D-A494-E355A2DFFDAB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/translations.xlsx
+++ b/translations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SjobergD\GitHub\gtsummary-translation-gif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4577BF89-EC48-429D-8806-E3435B7EDA8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFE8EE1-D2DE-435B-AEC1-B9B0FB4FE4A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{0CF341BA-DD9F-4680-99DA-1DA4026995D3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0CF341BA-DD9F-4680-99DA-1DA4026995D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="117">
   <si>
     <t>zh-tw</t>
   </si>
@@ -358,6 +358,30 @@
   </si>
   <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/09/Flag_of_South_Korea.svg/1280px-Flag_of_South_Korea.svg.png</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Norwegian</t>
+  </si>
+  <si>
+    <t>Norsk</t>
+  </si>
+  <si>
+    <t>Kjemoterapi</t>
+  </si>
+  <si>
+    <t>Strålebehandling</t>
+  </si>
+  <si>
+    <t>Alder</t>
+  </si>
+  <si>
+    <t>Tumorklasse</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d9/Flag_of_Norway.svg/188px-Flag_of_Norway.svg.png</t>
   </si>
 </sst>
 </file>
@@ -723,337 +747,358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{479039AE-01F2-4E76-BADA-2E4CABC84037}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+    <col min="5" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" customWidth="1"/>
+    <col min="12" max="12" width="20.44140625" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>45</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>58</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>60</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>63</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>84</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>94</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>51</v>
       </c>
       <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>53</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>54</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>55</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>56</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>93</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>57</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>59</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>61</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>62</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>85</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>95</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
         <v>92</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>36</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>42</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>46</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>65</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>70</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>75</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>86</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>37</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>47</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>71</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>74</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>87</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>97</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>38</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>48</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>67</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>72</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>73</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>88</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>98</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>39</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>43</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>49</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>68</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>69</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>76</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>89</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>99</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>34</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>40</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>44</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>50</v>
-      </c>
-      <c r="I7" t="s">
-        <v>64</v>
       </c>
       <c r="J7" t="s">
         <v>64</v>
       </c>
       <c r="K7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" t="s">
         <v>77</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>90</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>100</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1096,8 +1141,11 @@
       <c r="N8" t="s">
         <v>9</v>
       </c>
+      <c r="O8" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1140,8 +1188,11 @@
       <c r="N9" t="s">
         <v>10</v>
       </c>
+      <c r="O9" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1184,34 +1235,37 @@
       <c r="N10" t="s">
         <v>11</v>
       </c>
+      <c r="O10" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>80</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>81</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="I11" t="s">
-        <v>83</v>
       </c>
       <c r="J11" t="s">
         <v>83</v>
@@ -1220,26 +1274,30 @@
         <v>83</v>
       </c>
       <c r="L11" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11" t="s">
         <v>91</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>108</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" xr:uid="{5F2F4623-02C6-4F70-9F5A-2776CA2BC549}"/>
-    <hyperlink ref="C11" r:id="rId2" xr:uid="{3345943E-D23F-465D-896A-AEDF4FDBBD3A}"/>
-    <hyperlink ref="D11" r:id="rId3" xr:uid="{01DD4385-2BBA-44FD-96EE-7BF5547E6AC4}"/>
-    <hyperlink ref="E11" r:id="rId4" xr:uid="{5C0FA8A3-4498-4518-8DEF-D02C2D14579E}"/>
-    <hyperlink ref="H11" r:id="rId5" xr:uid="{48982109-33C4-478B-B7D5-5A4ABE8CC31D}"/>
-    <hyperlink ref="N11" r:id="rId6" xr:uid="{FD6FCF86-34ED-402F-83B8-DC2D22786984}"/>
-    <hyperlink ref="M11" r:id="rId7" xr:uid="{7410B219-1570-452D-A494-E355A2DFFDAB}"/>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{5F2F4623-02C6-4F70-9F5A-2776CA2BC549}"/>
+    <hyperlink ref="D11" r:id="rId2" xr:uid="{3345943E-D23F-465D-896A-AEDF4FDBBD3A}"/>
+    <hyperlink ref="E11" r:id="rId3" xr:uid="{01DD4385-2BBA-44FD-96EE-7BF5547E6AC4}"/>
+    <hyperlink ref="F11" r:id="rId4" xr:uid="{5C0FA8A3-4498-4518-8DEF-D02C2D14579E}"/>
+    <hyperlink ref="I11" r:id="rId5" xr:uid="{48982109-33C4-478B-B7D5-5A4ABE8CC31D}"/>
+    <hyperlink ref="O11" r:id="rId6" xr:uid="{FD6FCF86-34ED-402F-83B8-DC2D22786984}"/>
+    <hyperlink ref="N11" r:id="rId7" xr:uid="{7410B219-1570-452D-A494-E355A2DFFDAB}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{491ABCC9-C941-48B6-B1DA-3F605D96162E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>